--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_100ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1627,28 +1627,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.2837075634945</v>
+        <v>274.7319273994109</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.7667692572466</v>
+        <v>375.9003433851028</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.3897302264914</v>
+        <v>340.0249421918733</v>
       </c>
       <c r="AD2" t="n">
-        <v>240283.7075634945</v>
+        <v>274731.9273994109</v>
       </c>
       <c r="AE2" t="n">
-        <v>328766.7692572466</v>
+        <v>375900.3433851028</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.77928197895473e-06</v>
+        <v>5.4484563403571e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.041666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>297389.7302264914</v>
+        <v>340024.9421918733</v>
       </c>
     </row>
     <row r="3">
@@ -1733,28 +1733,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.3362959425759</v>
+        <v>136.6031210420937</v>
       </c>
       <c r="AB3" t="n">
-        <v>163.2811848543715</v>
+        <v>186.9064167140811</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.6978577384976</v>
+        <v>169.0683306277452</v>
       </c>
       <c r="AD3" t="n">
-        <v>119336.2959425759</v>
+        <v>136603.1210420937</v>
       </c>
       <c r="AE3" t="n">
-        <v>163281.1848543715</v>
+        <v>186906.4167140811</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.788256430131508e-06</v>
+        <v>8.344723315693224e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="AH3" t="n">
-        <v>147697.8577384976</v>
+        <v>169068.3306277452</v>
       </c>
     </row>
   </sheetData>
@@ -2030,28 +2030,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.5804281973551</v>
+        <v>169.7474475163433</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.8213202978577</v>
+        <v>232.255946420612</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.9415311326531</v>
+        <v>210.089764867564</v>
       </c>
       <c r="AD2" t="n">
-        <v>144580.4281973551</v>
+        <v>169747.4475163433</v>
       </c>
       <c r="AE2" t="n">
-        <v>197821.3202978577</v>
+        <v>232255.946420612</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.122219564613322e-06</v>
+        <v>7.498736750057544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.1375</v>
       </c>
       <c r="AH2" t="n">
-        <v>178941.5311326531</v>
+        <v>210089.764867564</v>
       </c>
     </row>
     <row r="3">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.3611769979316</v>
+        <v>142.4428554623481</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.5787399782124</v>
+        <v>194.8965989787692</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.2533304084131</v>
+        <v>176.2959411113852</v>
       </c>
       <c r="AD3" t="n">
-        <v>117361.1769979316</v>
+        <v>142442.8554623481</v>
       </c>
       <c r="AE3" t="n">
-        <v>160578.7399782124</v>
+        <v>194896.5989787692</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.749273048334143e-06</v>
+        <v>8.416719461129377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.46875</v>
       </c>
       <c r="AH3" t="n">
-        <v>145253.3304084131</v>
+        <v>176295.9411113852</v>
       </c>
     </row>
   </sheetData>
@@ -2433,28 +2433,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.5786644100219</v>
+        <v>165.8806201212922</v>
       </c>
       <c r="AB2" t="n">
-        <v>195.0824187724442</v>
+        <v>226.9651825863209</v>
       </c>
       <c r="AC2" t="n">
-        <v>176.4640265247517</v>
+        <v>205.3039441079822</v>
       </c>
       <c r="AD2" t="n">
-        <v>142578.6644100219</v>
+        <v>165880.6201212922</v>
       </c>
       <c r="AE2" t="n">
-        <v>195082.4187724442</v>
+        <v>226965.1825863209</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.978060590909971e-06</v>
+        <v>7.701674190667886e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.047916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>176464.0265247517</v>
+        <v>205303.9441079822</v>
       </c>
     </row>
   </sheetData>
@@ -2730,28 +2730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.1327557095326</v>
+        <v>151.1119008987455</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.9486450630462</v>
+        <v>206.7579693961347</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.3472305167342</v>
+        <v>187.0252789836591</v>
       </c>
       <c r="AD2" t="n">
-        <v>127132.7557095326</v>
+        <v>151111.9008987455</v>
       </c>
       <c r="AE2" t="n">
-        <v>173948.6450630462</v>
+        <v>206757.9693961347</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.428672765351026e-06</v>
+        <v>8.204320406906403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>157347.2305167342</v>
+        <v>187025.2789836591</v>
       </c>
     </row>
   </sheetData>
@@ -3027,28 +3027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.1938864511213</v>
+        <v>193.3438816536649</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.2890750484709</v>
+        <v>264.5416286084833</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.9786791140941</v>
+        <v>239.2941468606746</v>
       </c>
       <c r="AD2" t="n">
-        <v>163193.8864511213</v>
+        <v>193343.8816536649</v>
       </c>
       <c r="AE2" t="n">
-        <v>223289.0750484709</v>
+        <v>264541.6286084833</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.436791020359504e-06</v>
+        <v>7.012294923337783e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.2125</v>
       </c>
       <c r="AH2" t="n">
-        <v>201978.6791140941</v>
+        <v>239294.1468606746</v>
       </c>
     </row>
   </sheetData>
@@ -3324,28 +3324,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.3451692927012</v>
+        <v>183.6824659040013</v>
       </c>
       <c r="AB2" t="n">
-        <v>216.6548463220199</v>
+        <v>251.3224533482192</v>
       </c>
       <c r="AC2" t="n">
-        <v>195.977611866095</v>
+        <v>227.3365911340169</v>
       </c>
       <c r="AD2" t="n">
-        <v>158345.1692927012</v>
+        <v>183682.4659040013</v>
       </c>
       <c r="AE2" t="n">
-        <v>216654.8463220199</v>
+        <v>251322.4533482192</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.794436489258821e-06</v>
+        <v>6.989743220732952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.497916666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>195977.611866095</v>
+        <v>227336.5911340169</v>
       </c>
     </row>
     <row r="3">
@@ -3430,28 +3430,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.7507744775744</v>
+        <v>143.0027302343029</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.1118044376873</v>
+        <v>195.6626443416889</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.7355199440365</v>
+        <v>176.9888761800196</v>
       </c>
       <c r="AD3" t="n">
-        <v>117750.7744775744</v>
+        <v>143002.7302343029</v>
       </c>
       <c r="AE3" t="n">
-        <v>161111.8044376872</v>
+        <v>195662.6443416889</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.765378301913413e-06</v>
+        <v>8.405265976730029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.404166666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>145735.5199440365</v>
+        <v>176988.8761800196</v>
       </c>
     </row>
   </sheetData>
@@ -3727,28 +3727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.5465087376702</v>
+        <v>213.288046170396</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.1364307552382</v>
+        <v>291.8301143747012</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.1683222762256</v>
+        <v>263.9782578450036</v>
       </c>
       <c r="AD2" t="n">
-        <v>183546.5087376702</v>
+        <v>213288.046170396</v>
       </c>
       <c r="AE2" t="n">
-        <v>251136.4307552382</v>
+        <v>291830.1143747012</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.035789096403037e-06</v>
+        <v>6.466282129925195e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.239583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>227168.3222762256</v>
+        <v>263978.2578450036</v>
       </c>
     </row>
   </sheetData>
@@ -4024,28 +4024,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.8503596433039</v>
+        <v>142.5499981092223</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.2480612548257</v>
+        <v>195.0431962750223</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.858772601785</v>
+        <v>176.4285473674346</v>
       </c>
       <c r="AD2" t="n">
-        <v>117850.3596433039</v>
+        <v>142549.9981092223</v>
       </c>
       <c r="AE2" t="n">
-        <v>161248.0612548257</v>
+        <v>195043.1962750223</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.609443736120122e-06</v>
+        <v>8.329144371258495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.774999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>145858.772601785</v>
+        <v>176428.5473674346</v>
       </c>
     </row>
     <row r="3">
@@ -4130,28 +4130,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.169273735195</v>
+        <v>141.8689122011134</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.316169467962</v>
+        <v>194.1113044881585</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0158192591409</v>
+        <v>175.5855940247905</v>
       </c>
       <c r="AD3" t="n">
-        <v>117169.273735195</v>
+        <v>141868.9122011134</v>
       </c>
       <c r="AE3" t="n">
-        <v>160316.169467962</v>
+        <v>194111.3044881586</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.649560059546195e-06</v>
+        <v>8.388710821191545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>145015.8192591409</v>
+        <v>175585.5940247905</v>
       </c>
     </row>
   </sheetData>
@@ -4427,28 +4427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.6274426423766</v>
+        <v>150.7029610073163</v>
       </c>
       <c r="AB2" t="n">
-        <v>171.8890093148387</v>
+        <v>206.1984397955268</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.4841635136181</v>
+        <v>186.5191501028284</v>
       </c>
       <c r="AD2" t="n">
-        <v>125627.4426423766</v>
+        <v>150702.9610073163</v>
       </c>
       <c r="AE2" t="n">
-        <v>171889.0093148387</v>
+        <v>206198.4397955269</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.411431332552572e-06</v>
+        <v>7.957198504345591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.864583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155484.1635136181</v>
+        <v>186519.1501028284</v>
       </c>
     </row>
     <row r="3">
@@ -4533,28 +4533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.4181614413137</v>
+        <v>142.4936798062534</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.656708607624</v>
+        <v>194.9661390883122</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.3238578212633</v>
+        <v>176.3588444104736</v>
       </c>
       <c r="AD3" t="n">
-        <v>117418.1614413137</v>
+        <v>142493.6798062534</v>
       </c>
       <c r="AE3" t="n">
-        <v>160656.708607624</v>
+        <v>194966.1390883122</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.714605554167989e-06</v>
+        <v>8.402998758389726e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.554166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>145323.8578212633</v>
+        <v>176358.8444104736</v>
       </c>
     </row>
   </sheetData>
@@ -4830,28 +4830,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.837859358353</v>
+        <v>242.1658401916692</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.3729283331951</v>
+        <v>331.3419861529452</v>
       </c>
       <c r="AC2" t="n">
-        <v>257.2327751730703</v>
+        <v>299.719172036005</v>
       </c>
       <c r="AD2" t="n">
-        <v>207837.859358353</v>
+        <v>242165.8401916692</v>
       </c>
       <c r="AE2" t="n">
-        <v>284372.9283331952</v>
+        <v>331341.9861529452</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.079772757842094e-06</v>
+        <v>5.902503059488593e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.508333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>257232.7751730703</v>
+        <v>299719.172036005</v>
       </c>
     </row>
     <row r="3">
@@ -4936,28 +4936,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.7773327986023</v>
+        <v>144.3527262229972</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.5163868210737</v>
+        <v>197.5097684110393</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.0060509560967</v>
+        <v>178.6597133206467</v>
       </c>
       <c r="AD3" t="n">
-        <v>118777.3327986023</v>
+        <v>144352.7262229972</v>
       </c>
       <c r="AE3" t="n">
-        <v>162516.3868210737</v>
+        <v>197509.7684110393</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.781295630571004e-06</v>
+        <v>8.364219571215183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>147006.0509560967</v>
+        <v>178659.7133206467</v>
       </c>
     </row>
   </sheetData>
@@ -5233,28 +5233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.2174527900086</v>
+        <v>150.4196291435845</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.6962872282391</v>
+        <v>205.8107726398495</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.2143959559855</v>
+        <v>186.1684813563944</v>
       </c>
       <c r="AD2" t="n">
-        <v>126217.4527900086</v>
+        <v>150419.6291435845</v>
       </c>
       <c r="AE2" t="n">
-        <v>172696.2872282391</v>
+        <v>205810.7726398495</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.514885358175805e-06</v>
+        <v>8.281618490538469e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.010416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>156214.3959559854</v>
+        <v>186168.4813563944</v>
       </c>
     </row>
   </sheetData>
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.9942397735654</v>
+        <v>162.3416668873152</v>
       </c>
       <c r="AB2" t="n">
-        <v>179.2320979161069</v>
+        <v>222.1230306439982</v>
       </c>
       <c r="AC2" t="n">
-        <v>162.1264380448731</v>
+        <v>200.9239203510303</v>
       </c>
       <c r="AD2" t="n">
-        <v>130994.2397735654</v>
+        <v>162341.6668873152</v>
       </c>
       <c r="AE2" t="n">
-        <v>179232.0979161069</v>
+        <v>222123.0306439982</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.169485039078121e-06</v>
+        <v>7.928680872078794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.679166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>162126.4380448731</v>
+        <v>200923.9203510303</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.9508556472911</v>
+        <v>178.6238960076563</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.4328878276227</v>
+        <v>244.40109484769</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.1129771297544</v>
+        <v>221.0757973745884</v>
       </c>
       <c r="AD2" t="n">
-        <v>147950.8556472911</v>
+        <v>178623.8960076563</v>
       </c>
       <c r="AE2" t="n">
-        <v>202432.8878276227</v>
+        <v>244401.09484769</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.733893753105771e-06</v>
+        <v>7.396615611443009e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.54375</v>
       </c>
       <c r="AH2" t="n">
-        <v>183112.9771297544</v>
+        <v>221075.7973745884</v>
       </c>
     </row>
   </sheetData>
@@ -9233,28 +9233,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>222.2928603434755</v>
+        <v>258.7517306478528</v>
       </c>
       <c r="AB2" t="n">
-        <v>304.1508983906661</v>
+        <v>354.0355331930965</v>
       </c>
       <c r="AC2" t="n">
-        <v>275.1231635268178</v>
+        <v>320.2468787971382</v>
       </c>
       <c r="AD2" t="n">
-        <v>222292.8603434755</v>
+        <v>258751.7306478528</v>
       </c>
       <c r="AE2" t="n">
-        <v>304150.8983906661</v>
+        <v>354035.5331930965</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.470070679633753e-06</v>
+        <v>5.655091366754041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>275123.1635268178</v>
+        <v>320246.8787971382</v>
       </c>
     </row>
   </sheetData>
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.818340296118</v>
+        <v>144.7099272137812</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.9407392051835</v>
+        <v>197.9985065652253</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.2944651477586</v>
+        <v>179.1018069913456</v>
       </c>
       <c r="AD2" t="n">
-        <v>119818.340296118</v>
+        <v>144709.9272137812</v>
       </c>
       <c r="AE2" t="n">
-        <v>163940.7392051835</v>
+        <v>197998.5065652253</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.578085628878928e-06</v>
+        <v>8.24095663546074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.745833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>148294.4651477586</v>
+        <v>179101.8069913456</v>
       </c>
     </row>
     <row r="3">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.1894570289855</v>
+        <v>142.0810439466487</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.3437851409501</v>
+        <v>194.401552500992</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0407993310579</v>
+        <v>175.8481411746448</v>
       </c>
       <c r="AD3" t="n">
-        <v>117189.4570289855</v>
+        <v>142081.0439466487</v>
       </c>
       <c r="AE3" t="n">
-        <v>160343.7851409501</v>
+        <v>194401.552500992</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.689795056401992e-06</v>
+        <v>8.405993999394991e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.633333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>145040.7993310579</v>
+        <v>175848.1411746448</v>
       </c>
     </row>
   </sheetData>
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.4729684592185</v>
+        <v>211.503558967473</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.8263450005784</v>
+        <v>289.388500257644</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.6513394427092</v>
+        <v>261.7696679524506</v>
       </c>
       <c r="AD2" t="n">
-        <v>177472.9684592185</v>
+        <v>211503.558967473</v>
       </c>
       <c r="AE2" t="n">
-        <v>242826.3450005784</v>
+        <v>289388.5002576439</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.420189444642468e-06</v>
+        <v>6.418862154719329e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>219651.3394427092</v>
+        <v>261769.6679524506</v>
       </c>
     </row>
     <row r="3">
@@ -10039,28 +10039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.2684370757852</v>
+        <v>143.6847933973126</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.8200932422209</v>
+        <v>196.5958732518215</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.3762106591553</v>
+        <v>177.8330390327644</v>
       </c>
       <c r="AD3" t="n">
-        <v>118268.4370757852</v>
+        <v>143684.7933973126</v>
       </c>
       <c r="AE3" t="n">
-        <v>161820.0932422209</v>
+        <v>196595.8732518215</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.772594527483834e-06</v>
+        <v>8.382782912600481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.352083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>146376.2106591553</v>
+        <v>177833.0390327644</v>
       </c>
     </row>
   </sheetData>
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.4690296278697</v>
+        <v>351.309000535387</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.9055173935768</v>
+        <v>480.6764731917806</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.4527802949783</v>
+        <v>434.8013852240235</v>
       </c>
       <c r="AD2" t="n">
-        <v>294469.0296278697</v>
+        <v>351309.000535387</v>
       </c>
       <c r="AE2" t="n">
-        <v>402905.5173935768</v>
+        <v>480676.4731917806</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.671515077534118e-06</v>
+        <v>4.453256467940904e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.85625</v>
       </c>
       <c r="AH2" t="n">
-        <v>364452.7802949783</v>
+        <v>434801.3852240235</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.0556461632657</v>
+        <v>152.7980177446924</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.5796286137821</v>
+        <v>209.0649888509834</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.7271166899973</v>
+        <v>189.1121197396599</v>
       </c>
       <c r="AD2" t="n">
-        <v>129055.6461632657</v>
+        <v>152798.0177446924</v>
       </c>
       <c r="AE2" t="n">
-        <v>176579.6286137821</v>
+        <v>209064.9888509834</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.301199610922042e-06</v>
+        <v>8.06793079093151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>159727.1166899973</v>
+        <v>189112.1197396599</v>
       </c>
     </row>
   </sheetData>
@@ -10930,28 +10930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.4012819812416</v>
+        <v>141.8999454403348</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.6336133856843</v>
+        <v>194.1537655351512</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.3029667748911</v>
+        <v>175.6240026490527</v>
       </c>
       <c r="AD2" t="n">
-        <v>117401.2819812416</v>
+        <v>141899.9454403348</v>
       </c>
       <c r="AE2" t="n">
-        <v>160633.6133856843</v>
+        <v>194153.7655351512</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.582819140168642e-06</v>
+        <v>8.334650397144857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.866666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>145302.9667748911</v>
+        <v>175624.0026490527</v>
       </c>
     </row>
     <row r="3">
@@ -11036,28 +11036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.8480946835954</v>
+        <v>142.3467581426887</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.2449622370297</v>
+        <v>194.7651143864966</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.8559693498978</v>
+        <v>176.1770052240594</v>
       </c>
       <c r="AD3" t="n">
-        <v>117848.0946835954</v>
+        <v>142346.7581426887</v>
       </c>
       <c r="AE3" t="n">
-        <v>161244.9622370297</v>
+        <v>194765.1143864966</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.58093246834792e-06</v>
+        <v>8.331833764607592e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.868750000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>145855.9693498978</v>
+        <v>176177.0052240594</v>
       </c>
     </row>
   </sheetData>
